--- a/CN/2a_场景设计.xlsx
+++ b/CN/2a_场景设计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C5AAC-CF86-4D6A-A52E-9B7C78E17DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B5B1C-8848-4A16-9849-F85D4AE4B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前半段战斗场地" sheetId="1" r:id="rId1"/>
     <sheet name="后半段战斗场地" sheetId="2" r:id="rId2"/>
+    <sheet name="前半场地反馈" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>T12S 前半段战斗场地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,55 @@
   </si>
   <si>
     <t>放太多图片excel文件会变得很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体氛围很到位，很赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个地方可能需要改一下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地北侧的王座适当拉近棋盘场地，用作boss固定所在的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acfun.cn/bangumi/aa6000708_36188_1705865</t>
+  </si>
+  <si>
+    <t>即boss固定坐在王座上，玩家在棋盘中也大概能打到boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV124411U72a</t>
+  </si>
+  <si>
+    <t>神龙歼灭战（位置固定型boss的大小和距离感）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Tx41177gR</t>
+  </si>
+  <si>
+    <t>O3S（场地模型参考，看开头一两分钟的那个cg动画就行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《no game no life》 第三集 15:00 左右的棋盘场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色圈为boss目标圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（目标圈大小跟实际模型大小没有多大关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +233,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -217,13 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -240,6 +298,374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346166</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368351</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B9DE9E-DF63-BFEF-6C90-C0AAF64FF100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="346166" y="154587"/>
+          <a:ext cx="6727785" cy="4752694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-9092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="墨迹 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62BB14F-A1F8-9AF3-04F1-8DDEE7F5B0D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4456080" y="-9092"/>
+            <a:ext cx="2525400" cy="1679492"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="墨迹 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62BB14F-A1F8-9AF3-04F1-8DDEE7F5B0D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4447080" y="-18092"/>
+              <a:ext cx="2543040" cy="1697133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="墨迹 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1255F9DF-48B1-E902-0918-826BA15C8AFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4087440" y="2401200"/>
+            <a:ext cx="583920" cy="62280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="墨迹 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1255F9DF-48B1-E902-0918-826BA15C8AFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4078800" y="2392200"/>
+              <a:ext cx="601560" cy="79920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="墨迹 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F000BCC-9B3B-C3CD-182B-AA480675CBD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3692160" y="1658520"/>
+            <a:ext cx="1686240" cy="802440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="墨迹 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F000BCC-9B3B-C3CD-182B-AA480675CBD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3683518" y="1649880"/>
+              <a:ext cx="1703884" cy="820080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-10-16T04:08:25.825"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">195 469 24575,'-4'0'0,"1"0"0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-4 4 0,-2 5 0,0 0 0,-12 21 0,6-4 0,1 0 0,1 2 0,2-1 0,0 2 0,3-1 0,-6 41 0,-10 190 0,23-260 0,-3 652 0,7-360 0,-4 690 0,0-976 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,10 5 0,10 4 0,0-2 0,1-1 0,0-1 0,35 7 0,120 15 0,-77-15 0,307 71 0,100 17 0,1113 114-883,-564-70 885,-567-75-25,71-23-153,0-43 1146,51-11-860,-612 5-110,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,0-6 0,34-128 0,-14 48 0,115-425 0,-130 488 0,182-738 0,-152 553 0,25-153 0,-32-7 0,-35-16 0,-1 325 0,-3 0 0,-32-114 0,31 138 0,5 18 0,-1 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,-22-34 0,25 43 0,-1 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,-1 1 0,1 0 0,-1 0 0,0 2 0,-1-1 0,0 1 0,1 0 0,-17-4 0,-55-9 0,-85-8 0,7 2 0,-116-28 0,-560-87 0,159 90 0,239 41 0,-212-16 0,394-7 0,-107-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">969 0 24575,'-50'11'0,"27"-4"0,0 1 0,0 1 0,1 1 0,0 1 0,1 1 0,0 1 0,-31 25 0,-90 94 0,64-57 0,-140 103-1365,202-165-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1380.02">1613 3666 24575,'-8'3'0,"-12"5"0,-11 13 0,-24 23 0,-22 26 0,-5 12 0,-17 21 0,-2 0 0,5-10 0,11-11 0,10-11 0,14-14 0,13-14 0,16-14-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2115.08">2142 3856 24575,'-8'3'0,"-23"9"0,-21 17 0,-20 21 0,-12 9 0,-13 13 0,-1 1 0,2 0 0,2 0 0,8-3 0,6-12 0,17-10 0,17-15 0,11-5 0,9-4 0,8-6-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2971.05">745 4089 24575,'0'26'0,"-1"0"0,-1 0 0,-1-1 0,-2 1 0,0 0 0,-2-1 0,0 0 0,-2-1 0,-22 45 0,-24 20 0,-1 3 0,55-90 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,1 1 0,6 2 0,0-1 0,0 0 0,0 0 0,0-1 0,16 3 0,-22-5 0,89 10 0,-1-3 0,100-7 0,-97-1 0,626-2-1365,-705 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4246">724 3729 24575,'3'4'0,"1"0"0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,2 11 0,5 59 0,-8-65 0,3 322 0,-7-177 0,3-138-227,-1-1-1,-1 0 1,0 0-1,-1 0 1,-6 16-1,1-7-6598</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-10-16T04:35:59.870"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 0 0 0,'0'0'6053'0'0,"6"2"-5395"0"0,45 12 2172 0 0,74 33 1 0 0,-80-28-1616 0 0,1-2 0 0 0,81 18 0 0 0,-9-17 223 0 0,154 2 0 0 0,121-19-107 0 0,-334-3-1253 0 0,0-3-1 0 0,0-2 0 0 0,62-15 0 0 0,-83 12-4292 0 0,44-18 0 0 0,-62 19-5415 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-10-16T04:35:55.523"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">273 1 0 0 0,'0'0'11997'0'0,"-6"3"-7554"0"0,-20 14-4167 0 0,12-5-252 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-8 22 1 0 0,-6 24 90 0 0,-19 72 0 0 0,41-132-115 0 0,-16 72 21 0 0,3 0 1 0 0,-8 114 0 0 0,19-107 89 0 0,3 0 0 0 0,15 116 0 0 0,-9-149-85 0 0,2 0-1 0 0,2 0 0 0 0,31 90 1 0 0,-26-101 172 0 0,2 0 1 0 0,27 42 0 0 0,-29-57-966 0 0,32 39 0 0 0,1-15-4266 0 0,-38-39-3235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1278.75">147 1518 0 0 0,'0'0'4256'0'0,"3"2"-3976"0"0,38 40 1923 0 0,2-2 1 0 0,3-3 0 0 0,71 48 0 0 0,-43-29-729 0 0,12 9-323 0 0,22-1-206 0 0,2-5 0 0 0,2-4 0 0 0,128 42 0 0 0,-210-87-933 0 0,1-1 1 0 0,0-2 0 0 0,0 0-1 0 0,1-3 1 0 0,-1 0-1 0 0,60-2 1 0 0,-62-4-3199 0 0,1-1 0 0 0,29-7 0 0 0,-35 4-7117 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13594.79">2224 2226 0 0 0,'0'0'1191'0'0,"17"1"293"0"0,129 1 2786 0 0,297-32 5322 0 0,-178 6-7096 0 0,-153 18-1796 0 0,-22 2 80 0 0,121-20 0 0 0,-182 18-691 0 0,-1 0 0 0 0,0-2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 0 0 0 0,-2-2 0 0 0,33-23 0 0 0,90-86-1163 0 0,-101 80-3039 0 0,-1 0-5495 0 0,-34 32 2309 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15471.32">3458 2176 0 0 0,'0'0'8605'0'0,"13"-3"-7559"0"0,144-39 3428 0 0,216-89 0 0 0,-282 92-4378 0 0,-1-5 0 0 0,-3-3 0 0 0,143-102 0 0 0,-155 88-2595 0 0,-26 21-2105 0 0,1 2-6305 0 0,-40 32 9938 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18449.83">589 1616 0 0 0,'0'0'13736'0'0,"-4"5"-13445"0"0,-4 5-130 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-6 14-1 0 0,-23 69 890 0 0,17-42-921 0 0,-74 184-17 0 0,91-235-110 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,2 1-1 0 0,18 0 721 0 0,-9-2-416 0 0,10 0 35 0 0,-1-2 1 0 0,0 0-1 0 0,0-1 0 0 0,38-14 0 0 0,3 0 0 0 0,293-78 490 0 0,-267 68-1834 0 0,-66 20-3754 0 0,0 1-5110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20675.8">517 17 0 0 0,'0'0'12612'0'0,"-9"14"-12557"0"0,-74 111 181 0 0,55-72-315 0 0,1 1 1 0 0,3 1 0 0 0,2 1 0 0 0,3 2-1 0 0,2 0 1 0 0,3 0 0 0 0,2 1-1 0 0,3 1 1 0 0,-3 110 0 0 0,13-151-92 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 0 0 0 0,11 26 1 0 0,-5-20-2451 0 0,1-1-1 0 0,22 32 1 0 0,-23-38-282 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21350.69">225 942 0 0 0,'0'0'2654'0'0,"3"27"-1507"0"0,11 84-223 0 0,-12-96-685 0 0,0-1 0 0 0,2-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,12 18 0 0 0,-2-4 151 0 0,0 1-197 0 0,2-2 1 0 0,0 0 0 0 0,2-1 0 0 0,1-1 0 0 0,1-1-1 0 0,1-1 1 0 0,1-1 0 0 0,1-1 0 0 0,44 27 0 0 0,-38-29-1892 0 0,0-1 0 0 0,48 17 0 0 0,-60-26-2412 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25985.41">598 1540 0 0 0,'0'0'3486'0'0,"-9"-4"-3010"0"0,17 7-38 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,0 1-1 0 0,9 9 1 0 0,1-1 281 0 0,23 20-91 0 0,1-3 1 0 0,2-1-1 0 0,1-2 0 0 0,2-2 1 0 0,0-2-1 0 0,51 18 0 0 0,-35-21-81 0 0,1-4 1 0 0,106 17-1 0 0,-18-15-1167 0 0,0-6-4707 0 0,-91-8 1112 0 0,-33-2-721 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26659.78">1611 1917 0 0 0,'0'0'5953'0'0,"12"2"-5451"0"0,224 32 3020 0 0,503-18-1102 0 0,-676-21-5327 0 0,-23 0-2886 0 0,-21 2 2096 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28028.78">2758 1960 0 0 0,'0'0'10093'0'0,"30"-3"-9337"0"0,203-19 923 0 0,-139 9-979 0 0,0-3-1 0 0,0-4 1 0 0,91-34-1 0 0,-103 24-3089 0 0,129-66 0 0 0,-91 37-7632 0 0,-106 53 9498 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28403.78">3797 1686 0 0 0,'0'0'6564'0'0,"27"-12"-6062"0"0,173-82 262 0 0,-171 80-867 0 0,25-11-1085 0 0,-19 9-3124 0 0,-19 9 2085 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1344D49F-D65B-4C0D-B0E2-5ADC833B5E07}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -723,4 +1149,92 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58AEE41-BFCB-451E-BACF-E8412B1081C2}">
+  <dimension ref="N3:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P11" r:id="rId1" xr:uid="{923B5373-1366-4FAE-8C2E-C1680A0DDE3C}"/>
+    <hyperlink ref="P14" r:id="rId2" xr:uid="{B8879568-57F9-4384-B440-69B24EFA88F3}"/>
+    <hyperlink ref="P17" r:id="rId3" xr:uid="{D5302921-645A-4558-A88C-C5D9E201C701}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>